--- a/biology/Zoologie/Dolerus_triplicatus/Dolerus_triplicatus.xlsx
+++ b/biology/Zoologie/Dolerus_triplicatus/Dolerus_triplicatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolerus triplicatus est une espèce d'hyménoptères symphytes de la famille des Tenthredinidae et du genre Dolerus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolerus triplicatus est une espèce d'hyménoptères symphytes de la famille des Tenthredinidae et du genre Dolerus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce mesure environ 12 millimètres[2]. Le corps est de couleur orange, le pronotum présente un motif de taches noires caractéristique chez la femelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce mesure environ 12 millimètres. Le corps est de couleur orange, le pronotum présente un motif de taches noires caractéristique chez la femelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répartie dans l'ouest du Paléarctique, en Europe y compris dans le sud de l'Angleterre[3] et à l'est jusqu'au Moyen-Orient.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répartie dans l'ouest du Paléarctique, en Europe y compris dans le sud de l'Angleterre et à l'est jusqu'au Moyen-Orient.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est particulièrement commune durant les mois de mai et juin. Les plantes hôtes sont deux espèces du genre Juncus, il s'agit de Juncus effusus et de Juncus filiformis[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est particulièrement commune durant les mois de mai et juin. Les plantes hôtes sont deux espèces du genre Juncus, il s'agit de Juncus effusus et de Juncus filiformis.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dolerus triplicatus (Klug, 1818)[5].
-L'espèce a été initialement classée dans le genre Tenthredo sous le protonyme Tenthredo triplicata Klug, 1818[5].
-Dolerus triplicatus a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dolerus triplicatus (Klug, 1818).
+L'espèce a été initialement classée dans le genre Tenthredo sous le protonyme Tenthredo triplicata Klug, 1818.
+Dolerus triplicatus a pour synonymes :
 Achaetoprion triplicatus (Klug, 1818)
 Dolerus steini Konow, 1885
 Tenthredo triplicata Klug, 1818</t>
